--- a/files/reports/2021-10-13/report.xlsx
+++ b/files/reports/2021-10-13/report.xlsx
@@ -1060,13 +1060,13 @@
         <v>436</v>
       </c>
       <c r="C27">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D27">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E27" s="1">
-        <v>0.2156</v>
+        <v>0.2202</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1570,13 +1570,13 @@
         <v>10477</v>
       </c>
       <c r="C57">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="D57">
-        <v>9638</v>
+        <v>9634</v>
       </c>
       <c r="E57" s="1">
-        <v>0.0801</v>
+        <v>0.0805</v>
       </c>
     </row>
     <row r="58" spans="1:5">

--- a/files/reports/2021-10-13/report.xlsx
+++ b/files/reports/2021-10-13/report.xlsx
@@ -635,13 +635,13 @@
         <v>643</v>
       </c>
       <c r="C2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E2" s="1">
-        <v>0.2706</v>
+        <v>0.2753</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1060,13 +1060,13 @@
         <v>436</v>
       </c>
       <c r="C27">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D27">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E27" s="1">
-        <v>0.2202</v>
+        <v>0.2317</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1111,13 +1111,13 @@
         <v>696</v>
       </c>
       <c r="C30">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D30">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E30" s="1">
-        <v>0.2629</v>
+        <v>0.2672</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1247,13 +1247,13 @@
         <v>771</v>
       </c>
       <c r="C38">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D38">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E38" s="1">
-        <v>0.2711</v>
+        <v>0.2763</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1298,13 +1298,13 @@
         <v>432</v>
       </c>
       <c r="C41">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D41">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E41" s="1">
-        <v>0.8056</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1417,13 +1417,13 @@
         <v>410</v>
       </c>
       <c r="C48">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D48">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E48" s="1">
-        <v>0.7537</v>
+        <v>0.7634</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1553,13 +1553,13 @@
         <v>3093</v>
       </c>
       <c r="C56">
-        <v>2067</v>
+        <v>2085</v>
       </c>
       <c r="D56">
-        <v>1026</v>
+        <v>1008</v>
       </c>
       <c r="E56" s="1">
-        <v>0.6683</v>
+        <v>0.6741</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1570,13 +1570,13 @@
         <v>10477</v>
       </c>
       <c r="C57">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="D57">
-        <v>9634</v>
+        <v>9622</v>
       </c>
       <c r="E57" s="1">
-        <v>0.0805</v>
+        <v>0.08160000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:5">
